--- a/jpcore-r4/feature/swg3-サンプルファイルをリンクに変更/ValueSet-jp-medicallicencecertificate-vs.xlsx
+++ b/jpcore-r4/feature/swg3-サンプルファイルをリンクに変更/ValueSet-jp-medicallicencecertificate-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T06:09:42+00:00</t>
+    <t>2022-08-04T06:34:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
